--- a/Ciclo2Proyecto_DioIngenieria/Defectos.xlsx
+++ b/Ciclo2Proyecto_DioIngenieria/Defectos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Alejandro\Documents\NetBeansProjects\ProyectoSoftwareII\SGCC\Entrega2Proyecto_DioIngenieria\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Alejandro\Documents\NetBeansProjects\ProyectoSoftwareII\SGCC\Ciclo2Proyecto_DioIngenieria\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="50">
   <si>
     <t>DEFECTOS PLANEADOS</t>
   </si>
@@ -38,9 +38,6 @@
     <t>Tipo</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>Fase</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>Se desconoce los calculos de los aportes para pension y salud en el caso de uso de gestión de nómina.</t>
   </si>
   <si>
-    <t>10: 30 p.m</t>
-  </si>
-  <si>
     <t>Se desconoce los calculos para obtener el recargo por horas extras laboradas.</t>
   </si>
   <si>
@@ -110,10 +104,76 @@
     <t>Se investiga sobre los porcentajes vigentes para el recargo de los diferentes tipos de horas extra.</t>
   </si>
   <si>
-    <t>7:00 p.m</t>
-  </si>
-  <si>
     <t>Se desconoce los tipos de deducción que existen para una nómina.</t>
+  </si>
+  <si>
+    <t>Documentacion</t>
+  </si>
+  <si>
+    <t>Interfaces</t>
+  </si>
+  <si>
+    <t>Se agregaron a paquetes y se incluyeron las clases según MVC</t>
+  </si>
+  <si>
+    <t>Se define establecer relaciones de dependencia entre clases</t>
+  </si>
+  <si>
+    <t>Diseño</t>
+  </si>
+  <si>
+    <t>Sintaxis</t>
+  </si>
+  <si>
+    <t>No se crearon los modals de modificar, eliminar y crear nueva liquidacion.</t>
+  </si>
+  <si>
+    <t>No se agregaron los paquetes en donde se alojan las clases.</t>
+  </si>
+  <si>
+    <t>No se establecieron correctamente las relaciones entre clases.</t>
+  </si>
+  <si>
+    <t>No se establecieron las claves foraneas.</t>
+  </si>
+  <si>
+    <t>Se definieron las claves foraneas con las tablas liquidacion, y empleado</t>
+  </si>
+  <si>
+    <t>No se establece el tipo de objecto para llamar procedimientos y funciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Se pone un objeto de tipo CallableStatement en el diagrama de secuencia </t>
+  </si>
+  <si>
+    <t>Se le dio a la tabla principal de administracion de empleados el nombre "Usuario"</t>
+  </si>
+  <si>
+    <t>Se cambio el nombre a "empleado" y se cambiaron los nombres que la referencian a "empleado"</t>
+  </si>
+  <si>
+    <t>Se cambiaron los atributos de salud, pension, salarioNeto por tipo Double</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No se agregaron los modals para modificar, eliminar y crear liquidacion </t>
+  </si>
+  <si>
+    <t>Diagrama de clases</t>
+  </si>
+  <si>
+    <t>Relaciones innecesarias entre clases.</t>
+  </si>
+  <si>
+    <t>No se incluyen todos los metodos soporte a las operación.</t>
+  </si>
+  <si>
+    <t>No se definen las excepciones propias</t>
+  </si>
+  <si>
+    <t>No se definieron las excepciones</t>
+  </si>
+  <si>
+    <t>Se asignaron los atributos salud y pension como double.</t>
   </si>
 </sst>
 </file>
@@ -210,7 +270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -225,9 +285,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -249,6 +306,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -530,99 +599,96 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:N19"/>
+  <dimension ref="B2:M19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F5" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="35.28515625" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="26" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12"/>
-    </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B3" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="9" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B5" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="G5" s="13" t="s">
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="10"/>
+      <c r="G5" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-    </row>
-    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>3</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>5</v>
@@ -633,281 +699,395 @@
       <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="M6" s="6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G7" s="4">
         <v>42486</v>
       </c>
-      <c r="H7" s="6">
-        <v>0.66666666666666663</v>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="1"/>
+    </row>
+    <row r="8" spans="2:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="2"/>
-      <c r="M7" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="2:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="B8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>13</v>
       </c>
       <c r="G8" s="4">
         <v>42487</v>
       </c>
-      <c r="H8" s="6">
-        <v>0.91666666666666663</v>
+      <c r="H8" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="2">
+        <v>17</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K8" s="2">
         <v>1</v>
       </c>
-      <c r="M8" s="5" t="s">
+      <c r="L8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M8" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="2:14" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="D9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>17</v>
       </c>
       <c r="G9" s="4">
         <v>42487</v>
       </c>
-      <c r="H9" s="5" t="s">
+      <c r="H9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="2">
-        <v>1</v>
-      </c>
-      <c r="M9" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="N9" s="8" t="s">
+      <c r="M9" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="10" spans="2:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3"/>
+      <c r="D10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="G10" s="4">
         <v>42488</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K10" s="2"/>
+      <c r="L10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G11" s="4">
+        <v>42496</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J10" s="2" t="s">
+      <c r="I11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="M11" s="1"/>
+    </row>
+    <row r="12" spans="2:13" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G12" s="4">
+        <v>42496</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M12" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="L10" s="2"/>
-      <c r="M10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G13" s="4">
+        <v>42497</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="60" x14ac:dyDescent="0.25">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G14" s="4">
+        <v>42499</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" ht="75" x14ac:dyDescent="0.25">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G15" s="17">
+        <v>42501</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="K15" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="L15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="90" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G16" s="17">
+        <v>42502</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L16" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="G17" s="17">
+        <v>42503</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K17" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="L17" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="M17" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="45" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
+      <c r="G18" s="17">
+        <v>42503</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="14"/>
+      <c r="L18" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:13" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
+      <c r="G19" s="17">
+        <v>42505</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
+      <c r="L19" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B2:M2"/>
-    <mergeCell ref="B3:M3"/>
-    <mergeCell ref="G5:N5"/>
+    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B3:L3"/>
+    <mergeCell ref="G5:M5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
